--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,133 +513,133 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.644619877648873</v>
+        <v>13.644619875426717</v>
       </c>
       <c r="C2">
-        <v>15.436899876158378</v>
+        <v>15.436899871904671</v>
       </c>
       <c r="D2">
-        <v>14.435981915581161</v>
+        <v>14.435981907637249</v>
       </c>
       <c r="E2">
-        <v>16.190377364903995</v>
+        <v>16.190377362885609</v>
       </c>
       <c r="F2">
-        <v>10.855037792557889</v>
+        <v>10.855037790249861</v>
       </c>
       <c r="G2">
-        <v>13.266076210200339</v>
+        <v>13.266076210863384</v>
       </c>
       <c r="H2">
-        <v>10.992768547357569</v>
+        <v>10.992768543604257</v>
       </c>
       <c r="I2">
-        <v>12.205558879282625</v>
+        <v>12.205558880697428</v>
       </c>
       <c r="J2">
-        <v>15.883785965247514</v>
+        <v>15.883785958986001</v>
       </c>
       <c r="K2">
-        <v>12.466753942356346</v>
+        <v>12.46675394371192</v>
       </c>
       <c r="L2">
-        <v>11.973928850808516</v>
+        <v>11.9739288476769</v>
       </c>
       <c r="N2">
-        <v>13.018601134195634</v>
+        <v>13.018601133811405</v>
       </c>
       <c r="O2">
-        <v>11.832707156578968</v>
+        <v>11.832707150434354</v>
       </c>
       <c r="P2">
-        <v>14.195165088851317</v>
+        <v>14.195165085534779</v>
       </c>
       <c r="Q2">
-        <v>12.819274183666501</v>
+        <v>12.81927417683705</v>
       </c>
       <c r="S2">
-        <v>17.174195331563435</v>
+        <v>17.174195300190345</v>
       </c>
       <c r="V2">
-        <v>10.603145453474985</v>
+        <v>10.603145448277624</v>
       </c>
       <c r="W2">
-        <v>9.6534668262490317</v>
+        <v>9.6534668230112839</v>
       </c>
       <c r="X2">
-        <v>14.221332839951964</v>
+        <v>14.221332834516639</v>
       </c>
       <c r="AA2">
-        <v>15.195449717210849</v>
+        <v>15.195449709984981</v>
       </c>
       <c r="AB2">
-        <v>17.261408457866292</v>
+        <v>17.261408444149566</v>
       </c>
       <c r="AC2">
-        <v>13.402413792794473</v>
+        <v>13.402413794444431</v>
       </c>
       <c r="AD2">
-        <v>17.062412444092107</v>
+        <v>17.062412429296153</v>
       </c>
       <c r="AE2">
-        <v>12.510617233138976</v>
+        <v>12.510617232830437</v>
       </c>
       <c r="AF2">
-        <v>14.087547773303335</v>
+        <v>14.087547771726976</v>
       </c>
       <c r="AG2">
-        <v>11.657329241583348</v>
+        <v>11.657329235702699</v>
       </c>
       <c r="AH2">
-        <v>12.890808739455551</v>
+        <v>12.890808730460746</v>
       </c>
       <c r="AI2">
-        <v>17.862812399315864</v>
+        <v>17.862812383470512</v>
       </c>
       <c r="AJ2">
-        <v>12.688174930567378</v>
+        <v>12.688174929957924</v>
       </c>
       <c r="AK2">
-        <v>12.701942472437347</v>
+        <v>12.701942466398547</v>
       </c>
       <c r="AL2">
-        <v>14.762303402432561</v>
+        <v>14.762303396603095</v>
       </c>
       <c r="AM2">
-        <v>13.225605398754642</v>
+        <v>13.225605387070511</v>
       </c>
       <c r="AN2">
-        <v>12.847658682735119</v>
+        <v>12.847658674271434</v>
       </c>
       <c r="AO2">
-        <v>15.886908470357412</v>
+        <v>15.886908457304857</v>
       </c>
       <c r="AP2">
-        <v>13.748115919953429</v>
+        <v>13.748115915228349</v>
       </c>
       <c r="AQ2">
-        <v>11.843554252796311</v>
+        <v>11.843554243009178</v>
       </c>
       <c r="AR2">
-        <v>17.085218231949952</v>
+        <v>17.085218233089559</v>
       </c>
       <c r="AS2">
-        <v>13.762130357855257</v>
+        <v>13.762130346655949</v>
       </c>
       <c r="AU2">
-        <v>11.909008970670577</v>
+        <v>11.909008964818659</v>
       </c>
       <c r="AV2">
-        <v>11.280514909729025</v>
+        <v>11.280514896189279</v>
       </c>
       <c r="AW2">
-        <v>14.19713828653933</v>
+        <v>14.197138277378224</v>
       </c>
       <c r="AX2">
-        <v>16.720769579572682</v>
+        <v>16.720769572850454</v>
       </c>
       <c r="AY2">
-        <v>16.841129926374162</v>
+        <v>16.84112991502505</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -652,121 +647,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>14.401928306744288</v>
+        <v>14.401928300141412</v>
       </c>
       <c r="C3">
-        <v>13.704116408775571</v>
+        <v>13.704116400676142</v>
       </c>
       <c r="E3">
-        <v>15.009163601525866</v>
+        <v>15.009163598006589</v>
       </c>
       <c r="F3">
-        <v>10.577499451898454</v>
+        <v>10.577499447471016</v>
       </c>
       <c r="G3">
-        <v>14.258375547850916</v>
+        <v>14.258375543408928</v>
       </c>
       <c r="H3">
-        <v>10.28747729939237</v>
+        <v>10.287477297304076</v>
       </c>
       <c r="J3">
-        <v>16.68402489693797</v>
+        <v>16.684024884493077</v>
       </c>
       <c r="K3">
-        <v>14.712382885759979</v>
+        <v>14.712382882048031</v>
       </c>
       <c r="L3">
-        <v>12.731398322485216</v>
+        <v>12.73139831360233</v>
       </c>
       <c r="M3">
-        <v>14.285920351159062</v>
+        <v>14.28589039624533</v>
       </c>
       <c r="N3">
-        <v>13.072963012188799</v>
+        <v>13.072963006394714</v>
       </c>
       <c r="P3">
-        <v>14.671409737211407</v>
+        <v>14.671409724516105</v>
       </c>
       <c r="Q3">
-        <v>11.157685835266875</v>
+        <v>11.15768582997498</v>
       </c>
       <c r="R3">
-        <v>9.9029072270230181</v>
+        <v>9.9029072152466568</v>
       </c>
       <c r="W3">
-        <v>11.246449578859744</v>
+        <v>11.246449568713722</v>
       </c>
       <c r="AA3">
-        <v>15.278139254147186</v>
+        <v>15.278139245469058</v>
       </c>
       <c r="AB3">
-        <v>15.316712760737058</v>
+        <v>15.316712752254178</v>
       </c>
       <c r="AC3">
-        <v>15.682608917927743</v>
+        <v>15.682608915254132</v>
       </c>
       <c r="AD3">
-        <v>17.361526109391278</v>
+        <v>17.361526103865433</v>
       </c>
       <c r="AE3">
-        <v>12.869012096073613</v>
+        <v>12.869012093828669</v>
       </c>
       <c r="AF3">
-        <v>14.938285257172822</v>
+        <v>14.938285250878033</v>
       </c>
       <c r="AG3">
-        <v>12.218397586686621</v>
+        <v>12.218397578795132</v>
       </c>
       <c r="AH3">
-        <v>14.179248418209356</v>
+        <v>14.179248408952455</v>
       </c>
       <c r="AI3">
-        <v>21.11002364836687</v>
+        <v>21.110023647236293</v>
       </c>
       <c r="AJ3">
-        <v>13.611787327712921</v>
+        <v>13.611787319650926</v>
       </c>
       <c r="AK3">
-        <v>14.105605146158103</v>
+        <v>14.105605140312822</v>
       </c>
       <c r="AL3">
-        <v>14.751608044536344</v>
+        <v>14.75160803343022</v>
       </c>
       <c r="AM3">
-        <v>14.172007184184013</v>
+        <v>14.172007169812053</v>
       </c>
       <c r="AN3">
-        <v>11.224610959993639</v>
+        <v>11.224610953394853</v>
       </c>
       <c r="AO3">
-        <v>15.960008197970909</v>
+        <v>15.960008191472996</v>
       </c>
       <c r="AP3">
-        <v>11.499016830899702</v>
+        <v>11.499016824485746</v>
       </c>
       <c r="AQ3">
-        <v>11.346448029701016</v>
+        <v>11.346448022881235</v>
       </c>
       <c r="AS3">
-        <v>12.778731046925863</v>
+        <v>12.778731044404021</v>
       </c>
       <c r="AT3">
-        <v>16.610047241094257</v>
+        <v>16.610047231598433</v>
       </c>
       <c r="AU3">
-        <v>11.776297920778877</v>
+        <v>11.776297916170829</v>
       </c>
       <c r="AV3">
-        <v>11.029375458216434</v>
+        <v>11.029375451773184</v>
       </c>
       <c r="AW3">
-        <v>13.64865528175581</v>
+        <v>13.648655274422344</v>
       </c>
       <c r="AX3">
-        <v>15.658391413023265</v>
+        <v>15.658391404208178</v>
       </c>
       <c r="AY3">
-        <v>18.43264903786767</v>
+        <v>18.432649026806398</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_submax_1.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,56 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>13.644619875426717</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>15.436899871904671</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>14.435981907637249</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>16.190377362885609</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>10.855037790249861</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>13.266076210863384</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>10.992768543604257</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>12.205558880697428</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>15.883785958986001</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>12.46675394371192</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>11.9739288476769</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>13.018601133811405</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>11.832707150434354</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>14.195165085534779</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.81927417683705</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>17.174195300190345</v>
+        <v>15.627861458257398</v>
       </c>
       <c r="V2">
         <v>10.603145448277624</v>
@@ -570,55 +465,55 @@
         <v>14.221332834516639</v>
       </c>
       <c r="AA2">
-        <v>15.195449709984981</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>17.261408444149566</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>13.402413794444431</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>17.062412429296153</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>12.510617232830437</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>14.087547771726976</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>11.657329235702699</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>12.890808730460746</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>17.862812383470512</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>12.688174929957924</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>12.701942466398547</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>14.762303396603095</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>13.225605387070511</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>12.847658674271434</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>15.886908457304857</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>13.748115915228349</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>11.843554243009178</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>17.085218233089559</v>
@@ -643,104 +538,110 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>14.401928300141412</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>13.704116400676142</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>15.009163598006589</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>10.577499447471016</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>14.258375543408928</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>10.287477297304076</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>16.684024884493077</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>14.712382882048031</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>12.73139831360233</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>14.28589039624533</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>13.072963006394714</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>14.671409724516105</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>11.15768582997498</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>9.9029072152466568</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>11.246449568713722</v>
       </c>
       <c r="AA3">
-        <v>15.278139245469058</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>15.316712752254178</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>15.682608915254132</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>17.361526103865433</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>12.869012093828669</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>14.938285250878033</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>12.218397578795132</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>14.179248408952455</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>21.110023647236293</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>13.611787319650926</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>14.105605140312822</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>14.75160803343022</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>14.172007169812053</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>11.224610953394853</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>15.960008191472996</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>11.499016824485746</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>11.346448022881235</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>12.778731044404021</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.644619877648873</v>
-      </c>
-      <c r="C2">
-        <v>14.924693758427757</v>
+        <v>11.832707150434354</v>
       </c>
       <c r="D2">
-        <v>14.435981915581161</v>
+        <v>12.847658674271434</v>
       </c>
       <c r="E2">
-        <v>16.190377364903995</v>
+        <v>11.843554243009178</v>
       </c>
       <c r="F2">
         <v>10.855037792557889</v>
@@ -651,14 +643,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>14.401928306744288</v>
-      </c>
       <c r="C3">
-        <v>13.704116408775571</v>
+        <v>9.9029072152466568</v>
+      </c>
+      <c r="D3">
+        <v>11.443310135848185</v>
       </c>
       <c r="E3">
-        <v>15.009163601525866</v>
+        <v>11.414492161629271</v>
       </c>
       <c r="F3">
         <v>10.577499451898454</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_submax_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.644619877648873</v>
+        <v>12.836819038972349</v>
       </c>
       <c r="C2">
-        <v>14.924693758427757</v>
+        <v>11.832707150434354</v>
       </c>
       <c r="D2">
-        <v>14.435981915581161</v>
+        <v>13.225605387070511</v>
       </c>
       <c r="E2">
-        <v>16.190377364903995</v>
+        <v>12.847658674271434</v>
       </c>
       <c r="F2">
         <v>10.855037792557889</v>
@@ -649,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>14.401928306744288</v>
-      </c>
-      <c r="C3">
-        <v>13.704116408775571</v>
+        <v>13.072963006394714</v>
+      </c>
+      <c r="D3">
+        <v>14.172007169812053</v>
       </c>
       <c r="E3">
-        <v>16.302671192962602</v>
+        <v>11.443310135848185</v>
       </c>
       <c r="F3">
         <v>10.577499451898454</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_submax_1.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>13.644619875426717</v>
+      </c>
+      <c r="C2">
+        <v>14.924693756159716</v>
+      </c>
+      <c r="D2">
+        <v>14.435981907637249</v>
+      </c>
+      <c r="E2">
+        <v>16.190377362885609</v>
+      </c>
+      <c r="F2">
+        <v>10.855037790249861</v>
+      </c>
+      <c r="G2">
+        <v>14.057797896778004</v>
+      </c>
+      <c r="H2">
+        <v>10.992768543604257</v>
+      </c>
+      <c r="I2">
+        <v>12.955768809743992</v>
+      </c>
+      <c r="J2">
+        <v>15.883785958986001</v>
+      </c>
+      <c r="K2">
+        <v>12.46675394371192</v>
+      </c>
+      <c r="L2">
+        <v>12.018421349977046</v>
+      </c>
+      <c r="N2">
         <v>12.836819038972349</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>11.832707150434354</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>14.506329703167649</v>
+      </c>
+      <c r="Q2">
+        <v>12.81927417683705</v>
+      </c>
+      <c r="V2">
+        <v>11.153473516208317</v>
+      </c>
+      <c r="W2">
+        <v>9.6534668230112839</v>
+      </c>
+      <c r="X2">
+        <v>14.221332834516639</v>
+      </c>
+      <c r="AA2">
+        <v>15.195449709984981</v>
+      </c>
+      <c r="AB2">
+        <v>17.261408444149566</v>
+      </c>
+      <c r="AC2">
+        <v>13.402413794444431</v>
+      </c>
+      <c r="AD2">
+        <v>17.062412429296153</v>
+      </c>
+      <c r="AE2">
+        <v>12.510617232830437</v>
+      </c>
+      <c r="AF2">
+        <v>14.087547771726976</v>
+      </c>
+      <c r="AG2">
+        <v>11.657329235702699</v>
+      </c>
+      <c r="AH2">
+        <v>12.890808730460746</v>
+      </c>
+      <c r="AI2">
+        <v>17.862812383470512</v>
+      </c>
+      <c r="AJ2">
+        <v>12.688174929957924</v>
+      </c>
+      <c r="AK2">
+        <v>12.701942466398547</v>
+      </c>
+      <c r="AL2">
+        <v>14.762303396603095</v>
+      </c>
+      <c r="AM2">
         <v>13.225605387070511</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>12.847658674271434</v>
       </c>
-      <c r="F2">
-        <v>10.855037792557889</v>
-      </c>
-      <c r="G2">
-        <v>14.057797896135121</v>
-      </c>
-      <c r="H2">
-        <v>10.992768547357569</v>
-      </c>
-      <c r="I2">
-        <v>12.955768807057954</v>
-      </c>
-      <c r="J2">
-        <v>15.883785965247514</v>
-      </c>
-      <c r="K2">
-        <v>12.466753942356346</v>
-      </c>
-      <c r="L2">
-        <v>12.018421354667442</v>
-      </c>
-      <c r="N2">
-        <v>12.836819040426519</v>
-      </c>
-      <c r="O2">
-        <v>11.832707156578968</v>
-      </c>
-      <c r="P2">
-        <v>14.506329704048843</v>
-      </c>
-      <c r="Q2">
-        <v>12.819274183666501</v>
-      </c>
-      <c r="V2">
-        <v>11.153473523440637</v>
-      </c>
-      <c r="W2">
-        <v>9.6534668262490317</v>
-      </c>
-      <c r="X2">
-        <v>14.221332839951964</v>
-      </c>
-      <c r="AA2">
-        <v>15.195449717210849</v>
-      </c>
-      <c r="AB2">
-        <v>17.261408457866292</v>
-      </c>
-      <c r="AC2">
-        <v>13.402413792794473</v>
-      </c>
-      <c r="AD2">
-        <v>17.062412444092107</v>
-      </c>
-      <c r="AE2">
-        <v>12.510617233138976</v>
-      </c>
-      <c r="AF2">
-        <v>14.087547773303335</v>
-      </c>
-      <c r="AG2">
-        <v>11.657329241583348</v>
-      </c>
-      <c r="AH2">
-        <v>12.890808739455551</v>
-      </c>
-      <c r="AI2">
-        <v>17.862812399315864</v>
-      </c>
-      <c r="AJ2">
-        <v>12.688174930567378</v>
-      </c>
-      <c r="AK2">
-        <v>12.701942472437347</v>
-      </c>
-      <c r="AL2">
-        <v>14.762303402432561</v>
-      </c>
-      <c r="AM2">
-        <v>13.225605398754642</v>
-      </c>
-      <c r="AN2">
-        <v>12.847658682735119</v>
-      </c>
       <c r="AO2">
-        <v>15.886908470357412</v>
+        <v>15.886908457304857</v>
       </c>
       <c r="AP2">
-        <v>14.168286365947976</v>
+        <v>14.168286362547056</v>
       </c>
       <c r="AQ2">
-        <v>11.843554252796311</v>
+        <v>11.843554243009178</v>
       </c>
       <c r="AR2">
-        <v>17.085218231949952</v>
+        <v>17.085218233089559</v>
       </c>
       <c r="AS2">
-        <v>13.762130357855257</v>
+        <v>13.762130346655949</v>
       </c>
       <c r="AU2">
-        <v>10.84285608048479</v>
+        <v>10.842856073567313</v>
       </c>
       <c r="AV2">
-        <v>11.280514909729025</v>
+        <v>11.280514896189279</v>
       </c>
       <c r="AW2">
-        <v>14.19713828653933</v>
+        <v>14.197138277378224</v>
       </c>
       <c r="AX2">
-        <v>16.720769579572682</v>
+        <v>16.720769572850454</v>
       </c>
       <c r="AY2">
-        <v>16.841129926374162</v>
+        <v>16.84112991502505</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -644,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>14.401928300141412</v>
+      </c>
+      <c r="C3">
+        <v>13.704116400676142</v>
+      </c>
+      <c r="E3">
+        <v>16.302671193842841</v>
+      </c>
+      <c r="F3">
+        <v>10.577499447471016</v>
+      </c>
+      <c r="G3">
+        <v>14.258375543408928</v>
+      </c>
+      <c r="H3">
+        <v>10.287477297304076</v>
+      </c>
+      <c r="J3">
+        <v>16.684024884493077</v>
+      </c>
+      <c r="K3">
+        <v>14.484396908170108</v>
+      </c>
+      <c r="L3">
+        <v>12.73139831360233</v>
+      </c>
+      <c r="M3">
+        <v>13.532232076572534</v>
+      </c>
+      <c r="N3">
         <v>13.072963006394714</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>14.671409724516105</v>
+      </c>
+      <c r="Q3">
+        <v>11.15768582997498</v>
+      </c>
+      <c r="R3">
+        <v>9.9029072152466568</v>
+      </c>
+      <c r="W3">
+        <v>11.246449568713722</v>
+      </c>
+      <c r="AA3">
+        <v>15.278139245469058</v>
+      </c>
+      <c r="AB3">
+        <v>15.316712752254178</v>
+      </c>
+      <c r="AC3">
+        <v>15.682608915254132</v>
+      </c>
+      <c r="AD3">
+        <v>17.361526103865433</v>
+      </c>
+      <c r="AE3">
+        <v>12.869012093828669</v>
+      </c>
+      <c r="AF3">
+        <v>14.938285250878033</v>
+      </c>
+      <c r="AG3">
+        <v>12.218397578795132</v>
+      </c>
+      <c r="AH3">
+        <v>14.179248408952455</v>
+      </c>
+      <c r="AI3">
+        <v>15.903194951740918</v>
+      </c>
+      <c r="AJ3">
+        <v>13.611787319650926</v>
+      </c>
+      <c r="AK3">
+        <v>14.105605140312822</v>
+      </c>
+      <c r="AL3">
+        <v>14.75160803343022</v>
+      </c>
+      <c r="AM3">
         <v>14.172007169812053</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>11.443310135848185</v>
       </c>
-      <c r="F3">
-        <v>10.577499451898454</v>
-      </c>
-      <c r="G3">
-        <v>14.258375547850916</v>
-      </c>
-      <c r="H3">
-        <v>10.28747729939237</v>
-      </c>
-      <c r="J3">
-        <v>16.68402489693797</v>
-      </c>
-      <c r="K3">
-        <v>14.484396912374134</v>
-      </c>
-      <c r="L3">
-        <v>12.731398322485216</v>
-      </c>
-      <c r="M3">
-        <v>13.53221263773319</v>
-      </c>
-      <c r="N3">
-        <v>13.072963012188799</v>
-      </c>
-      <c r="P3">
-        <v>14.671409737211407</v>
-      </c>
-      <c r="Q3">
-        <v>11.157685835266875</v>
-      </c>
-      <c r="R3">
-        <v>9.9029072270230181</v>
-      </c>
-      <c r="W3">
-        <v>11.246449578859744</v>
-      </c>
-      <c r="AA3">
-        <v>15.278139254147186</v>
-      </c>
-      <c r="AB3">
-        <v>15.316712760737058</v>
-      </c>
-      <c r="AC3">
-        <v>15.682608917927743</v>
-      </c>
-      <c r="AD3">
-        <v>17.361526109391278</v>
-      </c>
-      <c r="AE3">
-        <v>12.869012096073613</v>
-      </c>
-      <c r="AF3">
-        <v>14.938285257172822</v>
-      </c>
-      <c r="AG3">
-        <v>12.218397586686621</v>
-      </c>
-      <c r="AH3">
-        <v>14.179248418209356</v>
-      </c>
-      <c r="AI3">
-        <v>15.90319496502314</v>
-      </c>
-      <c r="AJ3">
-        <v>13.611787327712921</v>
-      </c>
-      <c r="AK3">
-        <v>14.105605146158103</v>
-      </c>
-      <c r="AL3">
-        <v>14.751608044536344</v>
-      </c>
-      <c r="AM3">
-        <v>14.172007184184013</v>
-      </c>
-      <c r="AN3">
-        <v>11.443310142889048</v>
-      </c>
       <c r="AO3">
-        <v>15.960008197970909</v>
+        <v>15.960008191472996</v>
       </c>
       <c r="AP3">
-        <v>11.499016830899702</v>
+        <v>11.499016824485746</v>
       </c>
       <c r="AQ3">
-        <v>11.414492164296993</v>
+        <v>11.414492161629271</v>
       </c>
       <c r="AS3">
-        <v>12.778731046925863</v>
+        <v>12.778731044404021</v>
       </c>
       <c r="AT3">
-        <v>16.610047241094257</v>
+        <v>16.610047231598433</v>
       </c>
       <c r="AU3">
-        <v>11.907674628092032</v>
+        <v>11.907674622914561</v>
       </c>
       <c r="AV3">
-        <v>11.029375458216434</v>
+        <v>11.029375451773184</v>
       </c>
       <c r="AW3">
-        <v>13.64865528175581</v>
+        <v>13.648655274422344</v>
       </c>
       <c r="AX3">
-        <v>15.658391413023265</v>
+        <v>15.658391404208178</v>
       </c>
       <c r="AY3">
-        <v>18.43264903786767</v>
+        <v>18.432649026806398</v>
       </c>
     </row>
   </sheetData>
